--- a/data/trans_dic/P36B_4_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,54; 56,53</t>
+          <t>47,43; 56,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,05; 61,85</t>
+          <t>52,48; 62,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,79; 69,97</t>
+          <t>60,07; 69,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,28; 80,8</t>
+          <t>72,12; 80,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,28; 61,88</t>
+          <t>50,04; 61,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,71; 75,31</t>
+          <t>63,84; 74,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,64; 69,82</t>
+          <t>59,55; 69,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,49; 83,31</t>
+          <t>76,43; 83,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,17; 57,36</t>
+          <t>49,95; 57,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59,04; 66,29</t>
+          <t>59,0; 66,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,01; 68,34</t>
+          <t>61,67; 68,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,48; 80,91</t>
+          <t>75,21; 80,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,5; 55,47</t>
+          <t>44,17; 54,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,99; 66,16</t>
+          <t>56,06; 66,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,84; 65,44</t>
+          <t>55,18; 65,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,33; 79,53</t>
+          <t>70,72; 79,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,4; 55,93</t>
+          <t>45,65; 55,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,71; 68,67</t>
+          <t>57,45; 68,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,5; 63,49</t>
+          <t>52,78; 62,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,6; 80,53</t>
+          <t>73,12; 80,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,75; 54,34</t>
+          <t>46,68; 54,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,88; 65,59</t>
+          <t>58,42; 65,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,55; 62,62</t>
+          <t>55,72; 62,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,94; 79,16</t>
+          <t>73,0; 78,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,36; 50,94</t>
+          <t>42,72; 51,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,65; 66,64</t>
+          <t>58,84; 66,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,01; 58,01</t>
+          <t>49,03; 57,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,75; 93,84</t>
+          <t>73,31; 94,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,94; 61,71</t>
+          <t>46,8; 62,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,21; 76,03</t>
+          <t>64,25; 75,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,84; 68,14</t>
+          <t>52,9; 68,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,16; 87,29</t>
+          <t>77,51; 86,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,41; 52,13</t>
+          <t>44,76; 52,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>61,62; 68,02</t>
+          <t>61,23; 68,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,47; 59,05</t>
+          <t>51,26; 59,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,81; 93,53</t>
+          <t>76,02; 93,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,79; 52,57</t>
+          <t>47,0; 52,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,41; 66,22</t>
+          <t>60,46; 66,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,35; 55,13</t>
+          <t>49,45; 55,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,92; 78,22</t>
+          <t>71,73; 78,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,9; 59,59</t>
+          <t>51,95; 59,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,9; 69,12</t>
+          <t>61,77; 69,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,26; 58,27</t>
+          <t>51,38; 58,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 78,24</t>
+          <t>31,43; 78,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,52; 53,88</t>
+          <t>49,83; 54,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,94; 66,28</t>
+          <t>61,94; 66,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,08; 55,65</t>
+          <t>50,96; 55,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,59; 77,11</t>
+          <t>46,56; 76,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,99; 46,11</t>
+          <t>35,73; 46,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,7; 61,42</t>
+          <t>52,9; 61,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,6; 56,16</t>
+          <t>48,33; 56,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,0; 77,31</t>
+          <t>68,61; 77,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,01; 57,3</t>
+          <t>48,99; 57,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,13; 72,13</t>
+          <t>65,26; 72,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,82; 60,26</t>
+          <t>52,62; 60,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,05; 86,73</t>
+          <t>79,04; 86,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,94; 51,69</t>
+          <t>45,04; 51,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,48; 66,73</t>
+          <t>61,32; 66,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,95; 57,18</t>
+          <t>51,63; 57,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,98; 82,69</t>
+          <t>76,0; 82,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,15; 41,74</t>
+          <t>30,78; 41,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,91; 49,69</t>
+          <t>37,4; 49,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,43; 52,85</t>
+          <t>40,61; 52,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,51; 81,15</t>
+          <t>60,2; 80,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,28; 61,7</t>
+          <t>56,38; 61,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,63; 72,08</t>
+          <t>66,53; 71,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>59,02; 65,33</t>
+          <t>59,59; 65,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,47; 82,34</t>
+          <t>76,09; 82,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,12; 57,01</t>
+          <t>52,17; 57,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61,76; 66,99</t>
+          <t>62,07; 67,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>56,87; 62,3</t>
+          <t>56,49; 61,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>73,83; 80,82</t>
+          <t>73,98; 80,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,64; 49,21</t>
+          <t>45,67; 49,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>57,98; 61,4</t>
+          <t>58,08; 61,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,79; 56,35</t>
+          <t>52,84; 56,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,15; 82,07</t>
+          <t>74,26; 81,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,09; 57,51</t>
+          <t>54,17; 57,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,21; 69,56</t>
+          <t>66,34; 69,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,52; 60,83</t>
+          <t>57,52; 60,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,32; 80,21</t>
+          <t>60,58; 80,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>50,52; 53,01</t>
+          <t>50,4; 52,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,56; 65,04</t>
+          <t>62,71; 65,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,62; 58,12</t>
+          <t>55,74; 58,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>68,25; 78,74</t>
+          <t>69,16; 79,01</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume frutas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>246818</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>251338</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>279547</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>386423</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>171089</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>219038</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>225429</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>358392</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>417907</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>470375</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>504976</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>744815</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>224706; 268313</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>229468; 272053</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>257735; 298046</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>364349; 404893</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>153470; 189558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>200063; 234272</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>206673; 242697</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>342008; 373036</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>389851; 447916</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>442843; 496932</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>478633; 530566</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>716487; 768635</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>182774</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>256105</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>227361</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>342701</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>188974</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>212260</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>214333</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>293051</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>371748</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>468365</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>441694</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>635752</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>161701; 201088</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>234186; 277459</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>207652; 246903</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>319788; 360563</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>169762; 207525</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>192996; 229679</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>195047; 232129</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>279725; 308586</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>344441; 399418</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>440351; 494965</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>415580; 469033</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>609408; 658934</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>253589</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>395228</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>277452</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>560686</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90743</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>182577</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>101171</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>137733</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>344331</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>577805</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>378623</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>698419</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>231710; 278903</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>370344; 420492</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>254532; 300911</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>489881; 631600</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>78529; 104790</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>167124; 197673</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>87873; 113212</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>128929; 144547</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>317841; 372290</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>544639; 606723</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>351280; 405483</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>634451; 780060</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>866</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>616614</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>731797</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>599590</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>777882</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>396225</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>453000</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>598370</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1012839</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1232829</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1052590</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1376252</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>581515; 654819</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>699524; 766887</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>567403; 633543</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>742180; 808091</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>371098; 424231</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>472376; 528230</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>423811; 481054</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>307046; 763723</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>972492; 1057318</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1190312; 1276655</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1005139; 1098164</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>936601; 1545553</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>142002</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>290991</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>324048</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>346179</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>302907</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>523159</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>416714</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>690056</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>444909</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>814149</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>740762</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1036236</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>125265; 161473</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>269055; 313714</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>299960; 349031</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>325210; 366720</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>278102; 327169</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>496941; 549177</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>387924; 442596</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>664563; 730001</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>413575; 475396</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>778769; 847849</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>701132; 775481</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>999233; 1086439</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>107838</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>116517</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>132884</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>173261</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>735673</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>768584</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>677037</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>604595</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>843511</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>885101</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>809921</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>777856</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>91472; 123611</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>99813; 132031</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>116201; 149820</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>144776; 193611</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>703466; 767973</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>736565; 795491</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>644195; 708469</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>579018; 625899</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>806072; 883688</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>852784; 922834</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>772291; 845252</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>740853; 806840</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1756</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2239</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3361</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6784</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1549636</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2041975</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1840883</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2587132</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1885611</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2406649</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2087684</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2682197</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3435246</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4448624</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3928567</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5269330</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1492165; 1607027</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1984675; 2108554</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1785374; 1905162</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2506062; 2760350</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1828775; 1947740</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2350449; 2465323</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2027966; 2146920</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2165781; 2863024</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3348036; 3518048</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4364375; 4533938</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3848840; 4016372</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4806964; 5491331</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36B_4_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
